--- a/幼儿批量注册导入模板.xlsx
+++ b/幼儿批量注册导入模板.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hello\Desktop\CeShiPY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFFB14E-D628-4503-AF32-6E4D9A4F4144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24C8ECA-B976-4D11-BBCC-00FB0846E454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="导入幼儿" sheetId="1" r:id="rId1"/>
+    <sheet name="空工作表格" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -25,231 +25,163 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+  <si>
+    <t>其他信息</t>
+  </si>
+  <si>
+    <t>监护人信息一</t>
+  </si>
+  <si>
+    <t>监护人信息二</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>姓名拼音</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>身份证件类型</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
+  </si>
+  <si>
+    <t>国籍/地区</t>
+  </si>
+  <si>
+    <t>港澳台侨外</t>
+  </si>
+  <si>
+    <t>具体国籍地区</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>户口所在地行政编码</t>
+  </si>
+  <si>
+    <t>户口所在地详细地址</t>
+  </si>
+  <si>
+    <t>现居住地行政编码</t>
+  </si>
+  <si>
+    <t>现居住地详细地址</t>
+  </si>
+  <si>
+    <t>入园日期</t>
+  </si>
+  <si>
+    <t>是否留守儿童</t>
+  </si>
+  <si>
+    <t>是否随迁子女</t>
+  </si>
+  <si>
+    <t>是否孤儿</t>
+  </si>
+  <si>
+    <t>就读方式</t>
+  </si>
+  <si>
+    <t>健康状况</t>
+  </si>
+  <si>
+    <t>是否残疾幼儿</t>
+  </si>
+  <si>
+    <t>残疾幼儿类别</t>
+  </si>
+  <si>
+    <t>关系</t>
+  </si>
+  <si>
+    <t>是否监护人</t>
+  </si>
+  <si>
+    <t>实际居住地址</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>汪恩铃</t>
+  </si>
+  <si>
+    <t>Wang Enling</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>2022-06-05</t>
+  </si>
+  <si>
+    <t>居民身份证</t>
+  </si>
+  <si>
+    <t>中国大陆</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>汉族</t>
+  </si>
+  <si>
+    <t>5101A2</t>
+  </si>
+  <si>
+    <t>四川天府新区煎茶街道鸿湘村1组</t>
+  </si>
+  <si>
+    <t>天府新区煎茶街道鸿湘村1组</t>
+  </si>
+  <si>
+    <t>走读</t>
+  </si>
+  <si>
+    <t>健康或良好</t>
+  </si>
+  <si>
+    <t>汪艳鹏</t>
+  </si>
+  <si>
+    <t>父亲</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>510131199506163415</t>
+  </si>
+  <si>
+    <t>小班1班</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>关键信息</t>
-  </si>
-  <si>
-    <t>其他信息</t>
-  </si>
-  <si>
-    <t>监护人信息一</t>
-  </si>
-  <si>
-    <t>监护人信息二</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>姓名拼音</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>身份证件类型</t>
-  </si>
-  <si>
-    <t>身份证号码</t>
-  </si>
-  <si>
-    <t>国籍/地区</t>
-  </si>
-  <si>
-    <t>港澳台侨外</t>
-  </si>
-  <si>
-    <t>具体国籍地区</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>户口所在地行政编码</t>
-  </si>
-  <si>
-    <t>户口所在地详细地址</t>
-  </si>
-  <si>
-    <t>现居住地行政编码</t>
-  </si>
-  <si>
-    <t>现居住地详细地址</t>
-  </si>
-  <si>
-    <t>入园日期</t>
-  </si>
-  <si>
-    <t>是否留守儿童</t>
-  </si>
-  <si>
-    <t>是否随迁子女</t>
-  </si>
-  <si>
-    <t>是否孤儿</t>
-  </si>
-  <si>
-    <t>就读方式</t>
-  </si>
-  <si>
-    <t>健康状况</t>
-  </si>
-  <si>
-    <t>是否残疾幼儿</t>
-  </si>
-  <si>
-    <t>残疾幼儿类别</t>
-  </si>
-  <si>
-    <t>关系</t>
-  </si>
-  <si>
-    <t>是否监护人</t>
-  </si>
-  <si>
-    <t>实际居住地址</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>汪恩铃</t>
-  </si>
-  <si>
-    <t>Wang Enling</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>2022-06-05</t>
-  </si>
-  <si>
-    <t>居民身份证</t>
-  </si>
-  <si>
-    <t>510116202206055042</t>
-  </si>
-  <si>
-    <t>中国大陆</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>汉族</t>
-  </si>
-  <si>
-    <t>5101A2</t>
-  </si>
-  <si>
-    <t>四川天府新区煎茶街道鸿湘村1组</t>
-  </si>
-  <si>
-    <t>天府新区煎茶街道鸿湘村1组</t>
-  </si>
-  <si>
-    <t>走读</t>
-  </si>
-  <si>
-    <t>健康或良好</t>
-  </si>
-  <si>
-    <t>汪艳鹏</t>
-  </si>
-  <si>
-    <t>父亲</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>510131199506163415</t>
-  </si>
-  <si>
-    <t>唐世宇</t>
-  </si>
-  <si>
-    <t>Tang Shiyu</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>2022-01-02</t>
-  </si>
-  <si>
-    <t>510115202201020055</t>
-  </si>
-  <si>
-    <t>成都市天府新区天明南二街188号2栋2单元5楼502号</t>
-  </si>
-  <si>
-    <t>四川省成都市天府新区天明南二街188号2栋2单元5楼502号</t>
-  </si>
-  <si>
-    <t>姚乔丹</t>
-  </si>
-  <si>
-    <t>511023199409154678</t>
-  </si>
-  <si>
-    <t>戚安泠</t>
-  </si>
-  <si>
-    <t>Qi Anling</t>
-  </si>
-  <si>
-    <t>2022-08-24</t>
-  </si>
-  <si>
-    <t>52262520220824002X</t>
-  </si>
-  <si>
-    <t>侗族</t>
-  </si>
-  <si>
-    <t>四川省成都市天府新区创意南路922号5栋1单元3楼304</t>
-  </si>
-  <si>
-    <t>成都市天府新区和樾林语语澜组团2-2-502</t>
-  </si>
-  <si>
-    <t>戚元甲</t>
-  </si>
-  <si>
-    <t>522625198910172718</t>
-  </si>
-  <si>
-    <t>胡歆然</t>
-  </si>
-  <si>
-    <t>Hu Xinran</t>
-  </si>
-  <si>
-    <t>2022-05-28</t>
-  </si>
-  <si>
-    <t>510116202205285129</t>
-  </si>
-  <si>
-    <t>成都市天府新区庆西门街239号</t>
-  </si>
-  <si>
-    <t>四川省成都市天府新区兴隆街道东鑫苑云璟5栋902号</t>
-  </si>
-  <si>
-    <t>胡发辉</t>
-  </si>
-  <si>
-    <t>51012219950404239X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>幼儿信息管理系统</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>510116202206054444</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -257,8 +189,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="[$-409]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -273,6 +205,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -281,6 +214,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -288,12 +222,14 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -320,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -367,13 +303,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -413,10 +358,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -424,6 +372,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -907,11 +873,11 @@
   <sheetPr>
     <tabColor rgb="FF808080"/>
   </sheetPr>
-  <dimension ref="A1:XEY6"/>
+  <dimension ref="A1:XEY7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -953,356 +919,275 @@
     <col min="39" max="16379" width="11.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="17"/>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="18"/>
+    </row>
+    <row r="3" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AD3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AK3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="14">
-        <v>45901</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>18582548580</v>
-      </c>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
     </row>
     <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="O4" s="14">
         <v>45901</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="X4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>55</v>
+      <c r="AC4" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="AD4" s="3">
-        <v>19950387392</v>
+        <v>18582548580</v>
       </c>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
@@ -1314,94 +1199,36 @@
       <c r="AL4" s="3"/>
     </row>
     <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="14">
-        <v>45901</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>19950387392</v>
-      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
@@ -1412,94 +1239,36 @@
       <c r="AL5" s="3"/>
     </row>
     <row r="6" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="14">
-        <v>45901</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>18981873240</v>
-      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
@@ -1509,92 +1278,133 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
     </row>
+    <row r="7" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="AE1:AL1"/>
-    <mergeCell ref="W1:AD1"/>
-    <mergeCell ref="I1:V1"/>
+  <mergeCells count="5">
+    <mergeCell ref="AE2:AL2"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="I2:V2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="31">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1 H3:H6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"否,香港同胞,香港同胞亲属,澳门同胞,澳门同胞亲属,台湾同胞,台湾同胞亲属,华侨,侨眷,归侨,归侨子女,归国留学人员,非华裔中国人,外籍华裔人,外国人,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"中国大陆籍,中国港澳台籍,外国国籍"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="身份证件类型" promptTitle="身份证件类型" prompt="只允许从下拉类别选额" sqref="E3" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="身份证件类型" promptTitle="身份证件类型" prompt="只允许从下拉类别选额" sqref="E4" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"居民身份证,港澳居民来往内地通行证(香港),港澳居民来往内地通行证(澳门),台湾居民来往大陆通行证,境外永久居住证,护照,其他,港澳居民居住证,台湾居民居住证,外国人永久居留身份证"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="姓名" prompt="请输入不超过50个字符" sqref="A1:A2 W1:W2 W4:W6 AE1:AE2 AE4:AE6" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="姓名拼音" prompt="请输入不超过50个字符" sqref="B1:B2 B4:B6" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="身份证件类型" prompt="请从下拉选择" sqref="E1:E2 E4:E6" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="身份证件号码" prompt="请根据身份证件类型输入正确的证件号码" sqref="F1:F2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="户口所在地行政编码" prompt="可在国家统计局查询_x000a_请正确输入，示例北京海淀区：110108" sqref="K1:K2 K4:K6" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="户口所在地详细地址" prompt="请输入不超过180个字符" sqref="L1:L2 L4:L6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="现居住地行政编码" prompt="可在国家统计局查询_x000a_请正确输入，示例北京海淀区：110108" sqref="M1:M2 M4:M6" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="现居住地详细地址" prompt="请输入不超过180个字符" sqref="N1:N2 N4:N6" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="联系电话" prompt="手机号码或者固定电话，如18612345678或者010-88888888" sqref="AD1:AD2 AD4:AD6 AL1:AL2 AL4:AL6" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="实际居住地址" prompt="请输入不超过180个字符" sqref="AK1:AK2 AK4:AK6" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A6" xr:uid="{00000000-0002-0000-0000-00000D000000}">
-      <formula1>ISERROR(FIND(" ",A1))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="性别" prompt="只能从下拉选项内选择" sqref="C3:C6" xr:uid="{00000000-0002-0000-0000-00000E000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="姓名" prompt="请输入不超过50个字符" sqref="A2:A3 W2:W3 W5:W7 AE2:AE3 AE5:AE7" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="姓名拼音" prompt="请输入不超过50个字符" sqref="B2:B3 B5:B7" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="身份证件类型" prompt="请从下拉选择" sqref="E5:E7 E3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="身份证件号码" prompt="请根据身份证件类型输入正确的证件号码" sqref="F3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="户口所在地行政编码" prompt="可在国家统计局查询_x000a_请正确输入，示例北京海淀区：110108" sqref="K2:K3 K5:K7" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="户口所在地详细地址" prompt="请输入不超过180个字符" sqref="L2:L3 L5:L7" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="现居住地行政编码" prompt="可在国家统计局查询_x000a_请正确输入，示例北京海淀区：110108" sqref="M2:M3 M5:M7" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="现居住地详细地址" prompt="请输入不超过180个字符" sqref="N2:N3 N5:N7" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="联系电话" prompt="手机号码或者固定电话，如18612345678或者010-88888888" sqref="AD2:AD3 AD5:AD7 AL2:AL3 AL5:AL7" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="实际居住地址" prompt="请输入不超过180个字符" sqref="AK2:AK3 AK5:AK7" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:A7" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+      <formula1>ISERROR(FIND(" ",A2))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="性别" prompt="只能从下拉选项内选择" sqref="C4:C7" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" promptTitle="出生日期" prompt="格式：2025-01-01" sqref="D3:D6" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" promptTitle="出生日期" prompt="格式：2025-01-01" sqref="D4:D7" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>1</formula1>
       <formula2>401768</formula2>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F6" xr:uid="{00000000-0002-0000-0000-000010000000}">
-      <formula1>ISERROR(FIND(" ",A1))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G6" xr:uid="{00000000-0002-0000-0000-000011000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F7" xr:uid="{00000000-0002-0000-0000-000010000000}">
+      <formula1>ISERROR(FIND(" ",A2))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G7" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>"中国大陆,中国港澳台,外国国籍"</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="入园日期" prompt="格式：2020-12-22" sqref="O3:O6" xr:uid="{00000000-0002-0000-0000-000012000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="入园日期" prompt="格式：2020-12-22" sqref="O4:O7" xr:uid="{00000000-0002-0000-0000-000012000000}">
       <formula1>36161</formula1>
       <formula2>401404</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否留守儿童" prompt="请从下拉选择" sqref="P3:P6" xr:uid="{00000000-0002-0000-0000-000013000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否留守儿童" prompt="请从下拉选择" sqref="P4:P7" xr:uid="{00000000-0002-0000-0000-000013000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否进城务工人员子女" prompt="请从下拉选择" sqref="Q3:Q6" xr:uid="{00000000-0002-0000-0000-000014000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否进城务工人员子女" prompt="请从下拉选择" sqref="Q4:Q7" xr:uid="{00000000-0002-0000-0000-000014000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否孤儿" prompt="请从下拉选择" sqref="R3:R6" xr:uid="{00000000-0002-0000-0000-000015000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否孤儿" prompt="请从下拉选择" sqref="R4:R7" xr:uid="{00000000-0002-0000-0000-000015000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S6" xr:uid="{00000000-0002-0000-0000-000016000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S4:S7" xr:uid="{00000000-0002-0000-0000-000016000000}">
       <formula1>"走读,住校"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="健康状况" prompt="请从下拉选择" sqref="T3:T6" xr:uid="{00000000-0002-0000-0000-000017000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="健康状况" prompt="请从下拉选择" sqref="T4:T7" xr:uid="{00000000-0002-0000-0000-000017000000}">
       <formula1>"健康或良好,一般或较弱,有慢性病,残疾"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否残疾幼儿" prompt="请从下拉选择" sqref="U3:U6" xr:uid="{00000000-0002-0000-0000-000018000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否残疾幼儿" prompt="请从下拉选择" sqref="U4:U7" xr:uid="{00000000-0002-0000-0000-000018000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="残疾幼儿类别" prompt="请从下拉选择" sqref="V3:V6" xr:uid="{00000000-0002-0000-0000-000019000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="残疾幼儿类别" prompt="请从下拉选择" sqref="V4:V7" xr:uid="{00000000-0002-0000-0000-000019000000}">
       <formula1>"视力残疾,听力残疾,言语残疾,肢体残疾,智力残疾,精神残疾,多重残疾,其他残疾"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="关系" prompt="请从下拉选择" sqref="X3:X6 AF3:AF6" xr:uid="{00000000-0002-0000-0000-00001A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="关系" prompt="请从下拉选择" sqref="X4:X7 AF4:AF7" xr:uid="{00000000-0002-0000-0000-00001A000000}">
       <formula1>"父亲,母亲,继父或养父,继母或养母,祖父,祖母,外祖父,外祖母,兄弟姐妹,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否监护人" prompt="请从下拉选择" sqref="Y3:Y6 AG3:AG6" xr:uid="{00000000-0002-0000-0000-00001B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否监护人" prompt="请从下拉选择" sqref="Y4:Y7 AG4:AG7" xr:uid="{00000000-0002-0000-0000-00001B000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="身份证件类型" prompt="请从下拉选择" sqref="AA3:AA6 AI3:AI6" xr:uid="{00000000-0002-0000-0000-00001C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="身份证件类型" prompt="请从下拉选择" sqref="AA4:AA7 AI4:AI7" xr:uid="{00000000-0002-0000-0000-00001C000000}">
       <formula1>"居民身份证,军官证,士兵证,文职干部证,部队离退休证,香港特区护照/身份证明,澳门特区护照/身份证明,台湾居民来往大陆通行证,境外永久居住证,护照,户口簿,其他"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB6" xr:uid="{00000000-0002-0000-0000-00001D000000}">
-      <formula1>ISERROR(FIND(" ",A1))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ6" xr:uid="{00000000-0002-0000-0000-00001E000000}">
-      <formula1>ISERROR(FIND(" ",A1))</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB4:AB7" xr:uid="{00000000-0002-0000-0000-00001D000000}">
+      <formula1>ISERROR(FIND(" ",A2))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ4:AJ7" xr:uid="{00000000-0002-0000-0000-00001E000000}">
+      <formula1>ISERROR(FIND(" ",A2))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>